--- a/import.xlsx
+++ b/import.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Piemonte</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t>Birth place</t>
   </si>
   <si>
+    <t>Birth province</t>
+  </si>
+  <si>
     <t>Birth date</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t>LSSLCU79B24L219P</t>
   </si>
   <si>
@@ -177,6 +186,9 @@
     <t>Spiotta</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
     <t>YYY</t>
   </si>
   <si>
@@ -204,9 +216,6 @@
     <t>ZZZ</t>
   </si>
   <si>
-    <t>gruppo</t>
-  </si>
-  <si>
     <t>unita</t>
   </si>
   <si>
@@ -216,13 +225,16 @@
     <t>role</t>
   </si>
   <si>
+    <t>0b7295e3-f2bf-4115-a6df-270ecd0f6ceb</t>
+  </si>
+  <si>
     <t>capo_branco</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>41c997ad-7f87-4769-8cca-1201e16f05cc</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Own Profle</t>
@@ -235,6 +247,12 @@
   </si>
   <si>
     <t>adult</t>
+  </si>
+  <si>
+    <t>4dee96ad-9cc3-4add-9ffc-b6b103ed8fc2</t>
+  </si>
+  <si>
+    <t>715ff678-57af-418a-bde1-e3e1b247c4c6</t>
   </si>
 </sst>
 </file>
@@ -244,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -255,6 +273,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,6 +305,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.0"/>
-    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="1" max="2" width="32.0"/>
+    <col customWidth="1" min="3" max="3" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -600,43 +628,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -655,9 +695,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="32.25"/>
-    <col customWidth="1" min="6" max="6" width="17.25"/>
-    <col customWidth="1" min="7" max="7" width="36.38"/>
-    <col customWidth="1" min="9" max="9" width="21.0"/>
+    <col customWidth="1" min="7" max="7" width="17.25"/>
+    <col customWidth="1" min="8" max="8" width="36.38"/>
+    <col customWidth="1" min="10" max="10" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -668,129 +708,144 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
         <v>28910.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1">
         <v>3.470005201E9</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2">
         <v>30307.0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2">
         <v>41816.0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
         <v>40673.0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -808,51 +863,50 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.0"/>
-    <col customWidth="1" min="2" max="2" width="31.75"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
+    <col customWidth="1" min="1" max="2" width="32.0"/>
+    <col customWidth="1" min="3" max="3" width="32.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -877,60 +931,60 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
+      <c r="A1" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
